--- a/amc_resources/ab_molecules_amc.xlsx
+++ b/amc_resources/ab_molecules_amc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M329"/>
+  <dimension ref="A1:M357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20325,12 +20325,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -20357,12 +20357,12 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -20372,7 +20372,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -20389,12 +20389,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -20404,7 +20404,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -20421,12 +20421,12 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -20436,7 +20436,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -20453,12 +20453,12 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -20468,7 +20468,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -20485,12 +20485,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -20500,7 +20500,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -20517,12 +20517,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -20532,7 +20532,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -20549,12 +20549,12 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -20564,7 +20564,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -20581,12 +20581,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -20596,7 +20596,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -20613,12 +20613,12 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -20628,7 +20628,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -20645,12 +20645,12 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -20660,7 +20660,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -20677,12 +20677,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -20692,7 +20692,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -20709,12 +20709,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -20741,12 +20741,12 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -20756,10 +20756,906 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
+        <is>
+          <t>imipenem_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>fluconazole</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>fluconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>itraconazole</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>itraconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>fluconazole</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>fluconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>amphotericin b</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>amphotericin b_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>benzylpenicillin</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>benzylpenicillin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>imipenem</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>imipenem_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>fluconazole</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>fluconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>itraconazole</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>itraconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>fluconazole</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>fluconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>amphotericin b</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>amphotericin b_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>benzylpenicillin</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>benzylpenicillin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>cefpodoxime proxetil</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>cefpodoxime proxetil_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>cefuroxime axetil</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>cefuroxime axetil_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>imipenem</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>imipenem_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>fluconazole</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>fluconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>itraconazole</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>itraconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>fluconazole</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>fluconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>amphotericin b</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>amphotericin b_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>benzylpenicillin</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>benzylpenicillin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>imipenem</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>imipenem_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>fluconazole</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>fluconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>itraconazole</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>itraconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>fluconazole</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>fluconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>amphotericin b</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>amphotericin b_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>benzylpenicillin</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>benzylpenicillin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>cefpodoxime proxetil</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>cefpodoxime proxetil_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>cefuroxime axetil</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>cefuroxime axetil_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>imipenem</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
         <is>
           <t>imipenem_p</t>
         </is>

--- a/amc_resources/ab_molecules_amc.xlsx
+++ b/amc_resources/ab_molecules_amc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M357"/>
+  <dimension ref="A1:M492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21661,6 +21661,4326 @@
         </is>
       </c>
     </row>
+    <row r="358">
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/amc_resources/ab_molecules_amc.xlsx
+++ b/amc_resources/ab_molecules_amc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M492"/>
+  <dimension ref="A1:M573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25125,12 +25125,12 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -25140,7 +25140,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -25157,12 +25157,12 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -25172,7 +25172,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -25189,12 +25189,12 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -25204,7 +25204,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -25221,12 +25221,12 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -25236,7 +25236,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -25253,12 +25253,12 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -25268,7 +25268,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -25285,12 +25285,12 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -25300,7 +25300,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -25317,12 +25317,12 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -25332,7 +25332,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -25349,12 +25349,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -25364,7 +25364,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -25381,12 +25381,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -25396,7 +25396,7 @@
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -25413,12 +25413,12 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -25428,7 +25428,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -25445,12 +25445,12 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -25460,7 +25460,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -25477,12 +25477,12 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -25492,7 +25492,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -25509,12 +25509,12 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -25524,7 +25524,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -25541,12 +25541,12 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -25556,7 +25556,7 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -25573,12 +25573,12 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -25588,7 +25588,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -25605,12 +25605,12 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
@@ -25620,7 +25620,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -25637,12 +25637,12 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -25652,7 +25652,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -25669,12 +25669,12 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -25684,7 +25684,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -25701,12 +25701,12 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -25716,7 +25716,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -25733,12 +25733,12 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
@@ -25748,7 +25748,7 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -25765,12 +25765,12 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
@@ -25780,7 +25780,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -25797,12 +25797,12 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
@@ -25812,7 +25812,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -25829,12 +25829,12 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
@@ -25844,7 +25844,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -25861,12 +25861,12 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
@@ -25876,7 +25876,7 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -25893,12 +25893,12 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
@@ -25908,7 +25908,7 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -25925,12 +25925,12 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
@@ -25940,7 +25940,7 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -25957,25 +25957,2617 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
           <t xml:space="preserve">xml:space="preserve"&gt; </t>
         </is>
       </c>
-      <c r="E492" t="inlineStr">
+      <c r="E547" t="inlineStr">
         <is>
           <t xml:space="preserve">xml:space="preserve"&gt; </t>
         </is>
       </c>
-      <c r="F492" t="inlineStr">
+      <c r="F547" t="inlineStr">
         <is>
           <t>o</t>
         </is>
       </c>
-      <c r="G492" t="inlineStr">
+      <c r="G547" t="inlineStr">
         <is>
           <t xml:space="preserve">xml:space="preserve"&gt; </t>
         </is>
       </c>
-      <c r="I492" t="inlineStr">
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I551" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I552" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I556" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I557" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I558" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I559" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I560" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I561" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I562" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I565" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I573" t="inlineStr">
         <is>
           <t>flucytosine_o</t>
         </is>

--- a/amc_resources/ab_molecules_amc.xlsx
+++ b/amc_resources/ab_molecules_amc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M573"/>
+  <dimension ref="A1:M654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27717,12 +27717,12 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
@@ -27732,7 +27732,7 @@
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -27749,12 +27749,12 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
@@ -27764,7 +27764,7 @@
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
@@ -27781,12 +27781,12 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
@@ -27796,7 +27796,7 @@
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
@@ -27813,12 +27813,12 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
@@ -27828,7 +27828,7 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
@@ -27845,12 +27845,12 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
@@ -27860,7 +27860,7 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
@@ -27877,12 +27877,12 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
@@ -27892,7 +27892,7 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -27909,12 +27909,12 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -27924,7 +27924,7 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
@@ -27941,12 +27941,12 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
@@ -27956,7 +27956,7 @@
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -27973,12 +27973,12 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
@@ -27988,7 +27988,7 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -28005,12 +28005,12 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
@@ -28020,7 +28020,7 @@
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
@@ -28037,12 +28037,12 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
@@ -28052,7 +28052,7 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
@@ -28069,12 +28069,12 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
@@ -28084,7 +28084,7 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
@@ -28101,12 +28101,12 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
@@ -28116,7 +28116,7 @@
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
@@ -28133,12 +28133,12 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
@@ -28148,7 +28148,7 @@
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
@@ -28165,12 +28165,12 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
@@ -28180,7 +28180,7 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -28197,12 +28197,12 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
@@ -28212,7 +28212,7 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
@@ -28229,12 +28229,12 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
@@ -28244,7 +28244,7 @@
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
@@ -28261,12 +28261,12 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
@@ -28276,7 +28276,7 @@
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
@@ -28293,12 +28293,12 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
@@ -28308,7 +28308,7 @@
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
@@ -28325,12 +28325,12 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
@@ -28340,7 +28340,7 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
@@ -28357,12 +28357,12 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
@@ -28372,7 +28372,7 @@
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -28389,12 +28389,12 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -28404,7 +28404,7 @@
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
@@ -28421,12 +28421,12 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -28436,7 +28436,7 @@
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
@@ -28453,12 +28453,12 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -28468,7 +28468,7 @@
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
@@ -28485,12 +28485,12 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
@@ -28500,7 +28500,7 @@
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
@@ -28517,12 +28517,12 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
@@ -28532,7 +28532,7 @@
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
@@ -28549,25 +28549,2617 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I574" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I575" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
           <t xml:space="preserve">xml:space="preserve"&gt; </t>
         </is>
       </c>
-      <c r="E573" t="inlineStr">
+      <c r="E628" t="inlineStr">
         <is>
           <t xml:space="preserve">xml:space="preserve"&gt; </t>
         </is>
       </c>
-      <c r="F573" t="inlineStr">
+      <c r="F628" t="inlineStr">
         <is>
           <t>o</t>
         </is>
       </c>
-      <c r="G573" t="inlineStr">
+      <c r="G628" t="inlineStr">
         <is>
           <t xml:space="preserve">xml:space="preserve"&gt; </t>
         </is>
       </c>
-      <c r="I573" t="inlineStr">
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
         <is>
           <t>flucytosine_o</t>
         </is>
